--- a/src/dt4acc/resources/conversion-factors-simplified-table.xlsx
+++ b/src/dt4acc/resources/conversion-factors-simplified-table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dipoles" sheetId="1" state="visible" r:id="rId2"/>
@@ -596,52 +596,52 @@
     <t xml:space="preserve">'QIT6R'</t>
   </si>
   <si>
-    <t xml:space="preserve">'S1MT1R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MD2R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MT2R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MD3R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MT3R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MD4R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MT4R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MD5R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MT5R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MD6R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MT6R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MD7R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MT7R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MD8R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MT8R '</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'S1MD1R '</t>
+    <t xml:space="preserve">'S1MT1R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MD2R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MT2R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MD3R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MT3R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MD4R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MT4R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MD5R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MT5R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MD6R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MT6R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MD7R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MT7R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MD8R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MT8R'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'S1MD1R'</t>
   </si>
   <si>
     <t xml:space="preserve">'S2M2D1R'</t>
@@ -1423,6 +1423,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1482,7 +1483,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1497,6 +1498,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1522,10 +1527,10 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
   </cols>
@@ -2174,14 +2179,14 @@
   </sheetPr>
   <dimension ref="A2:D158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
   </cols>
@@ -4613,14 +4618,14 @@
   </sheetPr>
   <dimension ref="A2:D158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
   </cols>
@@ -4689,7 +4694,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B9" s="3" t="n">
@@ -6798,18 +6803,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D158"/>
+  <dimension ref="A2:F158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F145" activeCellId="0" sqref="F145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
   </cols>
@@ -9007,6 +9012,12 @@
       </c>
       <c r="D142" s="3" t="n">
         <f aca="false">1/C142</f>
+        <v>1905.96789433462</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0.000524667809448648</v>
+      </c>
+      <c r="F142" s="0" t="n">
         <v>1905.96789433462</v>
       </c>
     </row>
@@ -9229,14 +9240,14 @@
   </sheetPr>
   <dimension ref="A2:D158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="89.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
   </cols>
